--- a/report-template/ExcelTemplate.xlsx
+++ b/report-template/ExcelTemplate.xlsx
@@ -9,14 +9,48 @@
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Non-CR</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -44,8 +78,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -58,6 +104,783 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4989352746001094E-2"/>
+          <c:y val="0.10666394988951383"/>
+          <c:w val="0.75222948546526025"/>
+          <c:h val="0.8209659169676875"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4989352746001094E-2"/>
+          <c:y val="0.10666394988951383"/>
+          <c:w val="0.75222948546526025"/>
+          <c:h val="0.8209659169676875"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$24:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$24:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4989352746001094E-2"/>
+          <c:y val="0.10666394988951383"/>
+          <c:w val="0.75222948546526025"/>
+          <c:h val="0.8209659169676875"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$N$13:$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$O$13:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,14 +1170,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="e">
+        <f ca="1">SUM(INDIRECT("'"&amp;$B$2&amp;"'!D$2:D$50"))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="e">
+        <f ca="1">SUM(INDIRECT("'"&amp;$B$2&amp;"'!E$2:E$50"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="e">
+        <f ca="1">SUM(INDIRECT("'"&amp;$B$2&amp;"'!F$2:F$50"))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="e">
+        <f ca="1">SUM(INDIRECT("'"&amp;$B$2&amp;"'!G$2:G$50"))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="e">
+        <f ca="1">SUM(C3,C23)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="e">
+        <f t="shared" ref="O13:O15" ca="1" si="0">SUM(C4,C24)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="1" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6" t="e">
+        <f ca="1">SUM(INDIRECT("'"&amp;$B$22&amp;"'!D$2:D$50"))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="e">
+        <f ca="1">SUM(INDIRECT("'"&amp;$B$22&amp;"'!E$2:E$50"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6" t="e">
+        <f ca="1">SUM(INDIRECT("'"&amp;$B$22&amp;"'!F$2:F$50"))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="e">
+        <f ca="1">SUM(INDIRECT("'"&amp;$B$22&amp;"'!G$2:G$50"))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/report-template/ExcelTemplate.xlsx
+++ b/report-template/ExcelTemplate.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Skipped</t>
   </si>
   <si>
     <t>Reporting</t>
@@ -122,17 +113,228 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.4989352746001094E-2"/>
-          <c:y val="0.10666394988951383"/>
-          <c:w val="0.75222948546526025"/>
-          <c:h val="0.8209659169676875"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
       <c:doughnutChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -228,25 +430,26 @@
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>Summary!$B$4:$B$6</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Summary!$B$24:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Passed</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Failed</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$4:$C$6</c:f>
+              <c:f>Summary!$C$24:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -277,7 +480,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:legendEntry>
         <c:idx val="0"/>
         <c:txPr>
@@ -332,7 +535,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -348,17 +551,7 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.4989352746001094E-2"/>
-          <c:y val="0.10666394988951383"/>
-          <c:w val="0.75222948546526025"/>
-          <c:h val="0.8209659169676875"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:doughnutChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -454,27 +647,28 @@
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>Summary!$B$24:$B$26</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Summary!$N$13:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Passed</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Failed</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$24:$C$26</c:f>
+              <c:f>Summary!$O$13:$O$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -503,233 +697,7 @@
       </c:doughnutChart>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="1400"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.4989352746001094E-2"/>
-          <c:y val="0.10666394988951383"/>
-          <c:w val="0.75222948546526025"/>
-          <c:h val="0.8209659169676875"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="2000"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="2000"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="2000"/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Summary!$N$13:$N$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary!$O$13:$O$15</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="50"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:legendEntry>
         <c:idx val="0"/>
         <c:txPr>
@@ -1173,20 +1141,25 @@
   <dimension ref="B2:S26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
+      <c r="B3" s="5" t="e">
+        <f ca="1">CONCATENATE("Total (",SUM(INDIRECT("'"&amp;$B$2&amp;"'!D$2:D$50")), ")")</f>
+        <v>#REF!</v>
       </c>
       <c r="C3" s="6" t="e">
         <f ca="1">SUM(INDIRECT("'"&amp;$B$2&amp;"'!D$2:D$50"))</f>
@@ -1194,8 +1167,9 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
+      <c r="B4" s="5" t="e">
+        <f ca="1">CONCATENATE("Passed (",SUM(INDIRECT("'"&amp;$B$2&amp;"'!E$2:E$50")),")")</f>
+        <v>#REF!</v>
       </c>
       <c r="C4" s="6" t="e">
         <f ca="1">SUM(INDIRECT("'"&amp;$B$2&amp;"'!E$2:E$50"))</f>
@@ -1205,8 +1179,9 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>2</v>
+      <c r="B5" s="5" t="e">
+        <f ca="1">CONCATENATE("Failed (",SUM(INDIRECT("'"&amp;$B$2&amp;"'!F$2:F$50")),")")</f>
+        <v>#REF!</v>
       </c>
       <c r="C5" s="6" t="e">
         <f ca="1">SUM(INDIRECT("'"&amp;$B$2&amp;"'!F$2:F$50"))</f>
@@ -1214,8 +1189,9 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>3</v>
+      <c r="B6" s="5" t="e">
+        <f ca="1">CONCATENATE("Skipped (",SUM(INDIRECT("'"&amp;$B$2&amp;"'!G$2:G$50")),")")</f>
+        <v>#REF!</v>
       </c>
       <c r="C6" s="6" t="e">
         <f ca="1">SUM(INDIRECT("'"&amp;$B$2&amp;"'!G$2:G$50"))</f>
@@ -1224,7 +1200,7 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N11" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -1238,8 +1214,9 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N13" s="5" t="s">
-        <v>1</v>
+      <c r="N13" s="5" t="e">
+        <f ca="1">CONCATENATE("Passed (",SUM(C4,C24),")")</f>
+        <v>#REF!</v>
       </c>
       <c r="O13" s="1" t="e">
         <f t="shared" ref="O13:O15" ca="1" si="0">SUM(C4,C24)</f>
@@ -1247,8 +1224,9 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N14" s="5" t="s">
-        <v>2</v>
+      <c r="N14" s="5" t="e">
+        <f ca="1">CONCATENATE("Failed (",SUM(C5,C25),")")</f>
+        <v>#REF!</v>
       </c>
       <c r="O14" s="1" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -1260,8 +1238,9 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N15" s="5" t="s">
-        <v>3</v>
+      <c r="N15" s="5" t="e">
+        <f ca="1">CONCATENATE("Skipped (",SUM(C6,C26),")")</f>
+        <v>#REF!</v>
       </c>
       <c r="O15" s="1" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -1270,7 +1249,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -1283,8 +1262,9 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>1</v>
+      <c r="B24" s="5" t="e">
+        <f ca="1">CONCATENATE("Passed (",SUM(INDIRECT("'"&amp;$B$22&amp;"'!E$2:E$50")),")")</f>
+        <v>#REF!</v>
       </c>
       <c r="C24" s="6" t="e">
         <f ca="1">SUM(INDIRECT("'"&amp;$B$22&amp;"'!E$2:E$50"))</f>
@@ -1294,8 +1274,9 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>2</v>
+      <c r="B25" s="5" t="e">
+        <f ca="1">CONCATENATE("Failed (",SUM(INDIRECT("'"&amp;$B$22&amp;"'!F$2:F$50")),")")</f>
+        <v>#REF!</v>
       </c>
       <c r="C25" s="6" t="e">
         <f ca="1">SUM(INDIRECT("'"&amp;$B$22&amp;"'!F$2:F$50"))</f>
@@ -1303,8 +1284,9 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>3</v>
+      <c r="B26" s="5" t="e">
+        <f ca="1">CONCATENATE("Skipped (",SUM(INDIRECT("'"&amp;$B$22&amp;"'!G$2:G$50")),")")</f>
+        <v>#REF!</v>
       </c>
       <c r="C26" s="6" t="e">
         <f ca="1">SUM(INDIRECT("'"&amp;$B$22&amp;"'!G$2:G$50"))</f>

--- a/report-template/ExcelTemplate.xlsx
+++ b/report-template/ExcelTemplate.xlsx
@@ -315,6 +315,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -848,7 +849,616 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="C23">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752974" y="5534026"/>
+          <a:ext cx="762001" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{771C20E7-5143-4A37-81DA-AD6E0A0A3958}" type="TxLink">
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr/>
+            <a:t>#REF!</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="C3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695824" y="1666875"/>
+          <a:ext cx="781051" cy="428626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{7AC59542-919D-4A6D-8D65-CB051359D364}" type="TxLink">
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr/>
+            <a:t>#REF!</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="O12">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11744325" y="3352800"/>
+          <a:ext cx="733425" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:fld id="{E6402D6E-A70D-4CD9-B90A-2012F5FC81E0}" type="TxLink">
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr/>
+            <a:t>#REF!</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8867774" y="561975"/>
+          <a:ext cx="781051" cy="428626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>370</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724401" y="2085974"/>
+          <a:ext cx="723899" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SUM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733926" y="5934076"/>
+          <a:ext cx="723899" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SUM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733926" y="5934076"/>
+          <a:ext cx="723899" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SUM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11763376" y="3810001"/>
+          <a:ext cx="723899" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SUM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44061</cdr:x>
+      <cdr:y>0.51705</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62452</cdr:x>
+      <cdr:y>0.78977</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2190750" y="1733550"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1141,7 +1751,7 @@
   <dimension ref="B2:S26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
